--- a/Checker/Cases/NonLinear_FEA_Axi_Quad4_NeoHookean_Incompressible/Case_Details/Graphics.xlsx
+++ b/Checker/Cases/NonLinear_FEA_Axi_Quad4_NeoHookean_Incompressible/Case_Details/Graphics.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARQUIVOS THIAGO\DOUTORADO\Projeto de Tese\Project CEOS\CEOS\Checker\Cases\NonLinear_FEA_Axi_Quad4_NeoHookean_Incompressible\Case_Details\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\THIAGO\DOUTORADO\Projeto de Tese\Codigos em Fortran\codigo - Versao 2015\Project CEOS\CEOS\Checker\Cases\NonLinear_FEA_Axi_Quad4_NeoHookean_Incompressible\Case_Details\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Axi_Quad4_StVenant" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="ceos_disp_x.probe_1" localSheetId="0">Axi_Quad4_StVenant!$O$1:$P$52</definedName>
+    <definedName name="ceos_disp_y.probe_1" localSheetId="0">Axi_Quad4_StVenant!$M$1:$N$52</definedName>
     <definedName name="marc_disp_x" localSheetId="0">Axi_Quad4_StVenant!$B$1:$C$60</definedName>
     <definedName name="marc_disp_y" localSheetId="0">Axi_Quad4_StVenant!$F$1:$G$60</definedName>
   </definedNames>
@@ -29,7 +31,15 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="ceos_disp_x1" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="1" name="ceos_disp_x" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\Thiago\Desktop\ceos_disp_x.probe" delimited="0">
+      <textFields count="2">
+        <textField/>
+        <textField position="24"/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="ceos_disp_x1" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\Thiago\Desktop\ceos_disp_x.probe" delimited="0">
       <textFields count="2">
         <textField/>
@@ -37,7 +47,15 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="marc_disp_x" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="3" name="ceos_disp_y" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\Thiago\Desktop\ceos_disp_y.probe" delimited="0">
+      <textFields count="2">
+        <textField/>
+        <textField position="23"/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" name="marc_disp_x" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\Thiago\Desktop\marc_disp_x.dat" delimited="0">
       <textFields count="2">
         <textField/>
@@ -45,7 +63,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="marc_disp_y" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="5" name="marc_disp_y" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\Thiago\Desktop\marc_disp_y.dat" delimited="0">
       <textFields count="2">
         <textField/>
@@ -57,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>HISTORY PLOT</t>
   </si>
@@ -102,6 +120,12 @@
   </si>
   <si>
     <t>Y [Node 1]</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -264,9 +288,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -649,19 +673,325 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Axi_Quad4_StVenant!$O$2:$O$52</c:f>
+              <c:f>Axi_Quad4_StVenant!$M$2:$M$52</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Axi_Quad4_StVenant!$P$2:$P$52</c:f>
+              <c:f>Axi_Quad4_StVenant!$N$2:$N$52</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0113167901035299E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8465423805992003E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.48070762211197E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.08894097205844E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.30488029133157E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4935590249135499E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6527016378957099E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7800861270467799E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8735434766265801E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9309571911133802E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9502628978041099E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.92944801270112E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8665514635535001E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7596634639965399E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.60692533332579E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.40652935641925E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.15671867861521E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.5578723060510303E-6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.02079678402357E-6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.3991393700000195E-7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.7003156002362898E-6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-8.9149243019103393E-6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.4718437710113801E-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.1124874369733599E-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2.81477457823993E-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3.5800056421132397E-5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-4.4094303848793397E-5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-5.3042478979542198E-5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-6.2656066525077796E-5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-7.2946045664334296E-5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-8.3922890975408998E-5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-9.5596573667758002E-5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.07976563150405E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.2107182897225899E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.3489084316750899E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.4944158303927701E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.6473153441096101E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.8076769537449499E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.9755658056106501E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-2.15104225958822E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-2.3341619429820401E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-2.5249758102352299E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-2.7235302086613101E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2.9298669503144599E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-3.1440233900845301E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-3.3660325100752601E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-3.59592301027129E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-3.8337194054896502E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-4.0794421285391698E-4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-4.3331076395060699E-4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -675,11 +1005,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="221957856"/>
-        <c:axId val="221958416"/>
+        <c:axId val="211592320"/>
+        <c:axId val="154645072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="221957856"/>
+        <c:axId val="211592320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -722,12 +1052,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221958416"/>
+        <c:crossAx val="154645072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="221958416"/>
+        <c:axId val="154645072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -770,7 +1100,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221957856"/>
+        <c:crossAx val="211592320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1324,7 +1654,9 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1344,19 +1676,325 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Axi_Quad4_StVenant!$M$2:$M$52</c:f>
+              <c:f>Axi_Quad4_StVenant!$O$2:$O$52</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Axi_Quad4_StVenant!$N$2:$N$52</c:f>
+              <c:f>Axi_Quad4_StVenant!$P$2:$P$52</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6244034856427002E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.27766112749401E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9592429429500898E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.06686294839136E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.34053107574029E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.61687852241591E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8958558868967599E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1774144337111199E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.46150601319851E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7480829869479398E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0370981585224198E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3285047091238399E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.6222561378949098E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.9183062065875802E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.2166088883635704E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.5171183205200199E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.8197887609603496E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.1245745482549898E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.4314300651573501E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.7403097054601901E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.0511678440950002E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.3639588103917297E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.6786368644309703E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.99515617643075E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.3134708091224599E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.6335347030773004E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.9553016649523897E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.2787253586320206E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.6037592992417502E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.9303568500182992E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.2584712220171797E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.5880554766409106E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.9190625309697796E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.0251445165873301E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.05851560368765E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.0920147687751101E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.12563725667932E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.1593783045744099E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.1932331441298599E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.2271970039139799E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.2612651120425301E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.2954326990639999E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.32969500107206E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.3640472630340199E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.39848474232341E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.43300271244309E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.4675964669243299E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.50226132338578E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.53699262773538E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.5717857584966601E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1370,11 +2008,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="221961776"/>
-        <c:axId val="221962336"/>
+        <c:axId val="212608976"/>
+        <c:axId val="212609536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="221961776"/>
+        <c:axId val="212608976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1417,12 +2055,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221962336"/>
+        <c:crossAx val="212609536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="221962336"/>
+        <c:axId val="212609536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1465,7 +2103,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221961776"/>
+        <c:crossAx val="212608976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2737,11 +3375,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="marc_disp_y" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ceos_disp_x.probe_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="marc_disp_x" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ceos_disp_y.probe_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="marc_disp_y" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="marc_disp_x" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3009,29 +3655,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:P1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S17" sqref="S16:S17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5546875" customWidth="1"/>
-    <col min="14" max="14" width="8.21875" customWidth="1"/>
-    <col min="15" max="15" width="8.5546875" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" customWidth="1"/>
-    <col min="18" max="18" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" customWidth="1"/>
+    <col min="14" max="14" width="9" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3044,58 +3690,102 @@
       <c r="L1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="M3" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="N3" s="1">
+        <v>3.0113167901035299E-6</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="P3" s="1">
+        <v>2.6244034856427002E-4</v>
+      </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
+      <c r="M4" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="N4" s="1">
+        <v>5.8465423805992003E-6</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="P4" s="1">
+        <v>5.27766112749401E-4</v>
+      </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
+      <c r="M5" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="N5" s="1">
+        <v>8.48070762211197E-6</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="P5" s="1">
+        <v>7.9592429429500898E-4</v>
+      </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -3108,22 +3798,38 @@
       <c r="G6" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
+      <c r="M6" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1.08894097205844E-5</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1.06686294839136E-3</v>
+      </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="M7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1.30488029133157E-5</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1.34053107574029E-3</v>
+      </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -3136,14 +3842,22 @@
       <c r="G8" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
+      <c r="M8" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1.4935590249135499E-5</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1.61687852241591E-3</v>
+      </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -3156,14 +3870,22 @@
       <c r="G9" t="s">
         <v>12</v>
       </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+      <c r="M9" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1.6527016378957099E-5</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1.8958558868967599E-3</v>
+      </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>0</v>
       </c>
@@ -3185,14 +3907,22 @@
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
+      <c r="M10" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1.7800861270467799E-5</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="P10" s="1">
+        <v>2.1774144337111199E-3</v>
+      </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>0.02</v>
       </c>
@@ -3214,14 +3944,22 @@
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
+      <c r="M11" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1.8735434766265801E-5</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="P11" s="1">
+        <v>2.46150601319851E-3</v>
+      </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>0.04</v>
       </c>
@@ -3243,14 +3981,22 @@
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
+      <c r="M12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1.9309571911133802E-5</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="P12" s="1">
+        <v>2.7480829869479398E-3</v>
+      </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>0.06</v>
       </c>
@@ -3272,14 +4018,22 @@
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
+      <c r="M13" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1.9502628978041099E-5</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="P13" s="1">
+        <v>3.0370981585224198E-3</v>
+      </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>0.08</v>
       </c>
@@ -3301,14 +4055,22 @@
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
+      <c r="M14" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1.92944801270112E-5</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="P14" s="1">
+        <v>3.3285047091238399E-3</v>
+      </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>0.1</v>
       </c>
@@ -3330,14 +4092,22 @@
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
+      <c r="M15" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1.8665514635535001E-5</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="P15" s="1">
+        <v>3.6222561378949098E-3</v>
+      </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>0.12</v>
       </c>
@@ -3359,14 +4129,22 @@
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
+      <c r="M16" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1.7596634639965399E-5</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="P16" s="1">
+        <v>3.9183062065875802E-3</v>
+      </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>0.14000000000000001</v>
       </c>
@@ -3388,14 +4166,22 @@
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
+      <c r="M17" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1.60692533332579E-5</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="P17" s="1">
+        <v>4.2166088883635704E-3</v>
+      </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>0.16</v>
       </c>
@@ -3417,14 +4203,22 @@
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
+      <c r="M18" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1.40652935641925E-5</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="P18" s="1">
+        <v>4.5171183205200199E-3</v>
+      </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>0.18</v>
       </c>
@@ -3446,14 +4240,22 @@
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
+      <c r="M19" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1.15671867861521E-5</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="P19" s="1">
+        <v>4.8197887609603496E-3</v>
+      </c>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>0.2</v>
       </c>
@@ -3475,14 +4277,22 @@
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
+      <c r="M20" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="N20" s="1">
+        <v>8.5578723060510303E-6</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="P20" s="1">
+        <v>5.1245745482549898E-3</v>
+      </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>0.22</v>
       </c>
@@ -3504,14 +4314,22 @@
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
+      <c r="M21" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="N21" s="1">
+        <v>5.02079678402357E-6</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="P21" s="1">
+        <v>5.4314300651573501E-3</v>
+      </c>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>0.24</v>
       </c>
@@ -3533,14 +4351,22 @@
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
+      <c r="M22" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N22" s="1">
+        <v>9.3991393700000195E-7</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="P22" s="1">
+        <v>5.7403097054601901E-3</v>
+      </c>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>0.26</v>
       </c>
@@ -3562,14 +4388,22 @@
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
+      <c r="M23" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="N23" s="1">
+        <v>-3.7003156002362898E-6</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="P23" s="1">
+        <v>6.0511678440950002E-3</v>
+      </c>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>0.28000000000000003</v>
       </c>
@@ -3591,14 +4425,22 @@
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
+      <c r="M24" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="N24" s="1">
+        <v>-8.9149243019103393E-6</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="P24" s="1">
+        <v>6.3639588103917297E-3</v>
+      </c>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>0.3</v>
       </c>
@@ -3620,14 +4462,22 @@
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
+      <c r="M25" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="N25" s="1">
+        <v>-1.4718437710113801E-5</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="P25" s="1">
+        <v>6.6786368644309703E-3</v>
+      </c>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>0.32</v>
       </c>
@@ -3649,14 +4499,22 @@
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
+      <c r="M26" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="N26" s="1">
+        <v>-2.1124874369733599E-5</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="P26" s="1">
+        <v>6.99515617643075E-3</v>
+      </c>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>0.34</v>
       </c>
@@ -3678,14 +4536,22 @@
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
+      <c r="M27" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N27" s="1">
+        <v>-2.81477457823993E-5</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P27" s="1">
+        <v>7.3134708091224599E-3</v>
+      </c>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>0.36</v>
       </c>
@@ -3707,14 +4573,22 @@
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
+      <c r="M28" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="N28" s="1">
+        <v>-3.5800056421132397E-5</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="P28" s="1">
+        <v>7.6335347030773004E-3</v>
+      </c>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>0.38</v>
       </c>
@@ -3736,14 +4610,22 @@
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
+      <c r="M29" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="N29" s="1">
+        <v>-4.4094303848793397E-5</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="P29" s="1">
+        <v>7.9553016649523897E-3</v>
+      </c>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>0.4</v>
       </c>
@@ -3765,14 +4647,22 @@
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
+      <c r="M30" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N30" s="1">
+        <v>-5.3042478979542198E-5</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="P30" s="1">
+        <v>8.2787253586320206E-3</v>
+      </c>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>0.42</v>
       </c>
@@ -3794,14 +4684,22 @@
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
+      <c r="M31" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N31" s="1">
+        <v>-6.2656066525077796E-5</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="P31" s="1">
+        <v>8.6037592992417502E-3</v>
+      </c>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>0.44</v>
       </c>
@@ -3823,14 +4721,22 @@
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
+      <c r="M32" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="N32" s="1">
+        <v>-7.2946045664334296E-5</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P32" s="1">
+        <v>8.9303568500182992E-3</v>
+      </c>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>0.46</v>
       </c>
@@ -3852,14 +4758,22 @@
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
+      <c r="M33" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="N33" s="1">
+        <v>-8.3922890975408998E-5</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="P33" s="1">
+        <v>9.2584712220171797E-3</v>
+      </c>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>0.48</v>
       </c>
@@ -3881,14 +4795,22 @@
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
+      <c r="M34" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="N34" s="1">
+        <v>-9.5596573667758002E-5</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="P34" s="1">
+        <v>9.5880554766409106E-3</v>
+      </c>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>0.5</v>
       </c>
@@ -3910,14 +4832,22 @@
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
+      <c r="M35" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="N35" s="1">
+        <v>-1.07976563150405E-4</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="P35" s="1">
+        <v>9.9190625309697796E-3</v>
+      </c>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>0.52</v>
       </c>
@@ -3939,14 +4869,22 @@
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
+      <c r="M36" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="N36" s="1">
+        <v>-1.2107182897225899E-4</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="P36" s="1">
+        <v>1.0251445165873301E-2</v>
+      </c>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>0.54</v>
       </c>
@@ -3968,14 +4906,22 @@
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
+      <c r="M37" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="N37" s="1">
+        <v>-1.3489084316750899E-4</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="P37" s="1">
+        <v>1.05851560368765E-2</v>
+      </c>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>0.56000000000000005</v>
       </c>
@@ -3997,14 +4943,22 @@
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
+      <c r="M38" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="N38" s="1">
+        <v>-1.4944158303927701E-4</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="P38" s="1">
+        <v>1.0920147687751101E-2</v>
+      </c>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>0.57999999999999996</v>
       </c>
@@ -4026,14 +4980,22 @@
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
+      <c r="M39" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="N39" s="1">
+        <v>-1.6473153441096101E-4</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="P39" s="1">
+        <v>1.12563725667932E-2</v>
+      </c>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>0.6</v>
       </c>
@@ -4055,14 +5017,22 @@
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
+      <c r="M40" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="N40" s="1">
+        <v>-1.8076769537449499E-4</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="P40" s="1">
+        <v>1.1593783045744099E-2</v>
+      </c>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>0.62</v>
       </c>
@@ -4084,14 +5054,22 @@
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
+      <c r="M41" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="N41" s="1">
+        <v>-1.9755658056106501E-4</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="P41" s="1">
+        <v>1.1932331441298599E-2</v>
+      </c>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>0.64</v>
       </c>
@@ -4113,14 +5091,22 @@
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
+      <c r="M42" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="N42" s="1">
+        <v>-2.15104225958822E-4</v>
+      </c>
+      <c r="O42" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="P42" s="1">
+        <v>1.2271970039139799E-2</v>
+      </c>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>0.66</v>
       </c>
@@ -4142,14 +5128,22 @@
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
+      <c r="M43" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="N43" s="1">
+        <v>-2.3341619429820401E-4</v>
+      </c>
+      <c r="O43" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="P43" s="1">
+        <v>1.2612651120425301E-2</v>
+      </c>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>0.68</v>
       </c>
@@ -4171,14 +5165,22 @@
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
+      <c r="M44" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="N44" s="1">
+        <v>-2.5249758102352299E-4</v>
+      </c>
+      <c r="O44" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="P44" s="1">
+        <v>1.2954326990639999E-2</v>
+      </c>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>0.7</v>
       </c>
@@ -4200,14 +5202,22 @@
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
+      <c r="M45" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="N45" s="1">
+        <v>-2.7235302086613101E-4</v>
+      </c>
+      <c r="O45" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="P45" s="1">
+        <v>1.32969500107206E-2</v>
+      </c>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>0.72</v>
       </c>
@@ -4229,14 +5239,22 @@
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
+      <c r="M46" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="N46" s="1">
+        <v>-2.9298669503144599E-4</v>
+      </c>
+      <c r="O46" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="P46" s="1">
+        <v>1.3640472630340199E-2</v>
+      </c>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>0.74</v>
       </c>
@@ -4258,14 +5276,22 @@
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
+      <c r="M47" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="N47" s="1">
+        <v>-3.1440233900845301E-4</v>
+      </c>
+      <c r="O47" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="P47" s="1">
+        <v>1.39848474232341E-2</v>
+      </c>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>0.76</v>
       </c>
@@ -4287,14 +5313,22 @@
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
+      <c r="M48" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="N48" s="1">
+        <v>-3.3660325100752601E-4</v>
+      </c>
+      <c r="O48" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="P48" s="1">
+        <v>1.43300271244309E-2</v>
+      </c>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>0.78</v>
       </c>
@@ -4316,14 +5350,22 @@
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
+      <c r="M49" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="N49" s="1">
+        <v>-3.59592301027129E-4</v>
+      </c>
+      <c r="O49" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="P49" s="1">
+        <v>1.4675964669243299E-2</v>
+      </c>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>0.8</v>
       </c>
@@ -4345,14 +5387,22 @@
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
+      <c r="M50" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="N50" s="1">
+        <v>-3.8337194054896502E-4</v>
+      </c>
+      <c r="O50" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="P50" s="1">
+        <v>1.50226132338578E-2</v>
+      </c>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
     </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>0.82</v>
       </c>
@@ -4374,14 +5424,22 @@
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
+      <c r="M51" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="N51" s="1">
+        <v>-4.0794421285391698E-4</v>
+      </c>
+      <c r="O51" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="P51" s="1">
+        <v>1.53699262773538E-2</v>
+      </c>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
     </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>0.84</v>
       </c>
@@ -4403,14 +5461,22 @@
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
+      <c r="M52" s="1">
+        <v>1</v>
+      </c>
+      <c r="N52" s="1">
+        <v>-4.3331076395060699E-4</v>
+      </c>
+      <c r="O52" s="1">
+        <v>1</v>
+      </c>
+      <c r="P52" s="1">
+        <v>1.5717857584966601E-2</v>
+      </c>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
     </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>0.86</v>
       </c>
@@ -4433,7 +5499,7 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>0.88</v>
       </c>
@@ -4456,7 +5522,7 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>0.9</v>
       </c>
@@ -4479,7 +5545,7 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>0.92</v>
       </c>
@@ -4502,7 +5568,7 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>0.94</v>
       </c>
@@ -4525,7 +5591,7 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>0.96</v>
       </c>
@@ -4548,7 +5614,7 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>0.98</v>
       </c>
@@ -4571,7 +5637,7 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>1</v>
       </c>
